--- a/matrix/executed/template.xlsx
+++ b/matrix/executed/template.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\matrix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\matrix\executed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E351C0F-124D-4455-8EB2-8E2E36CA3D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3487EAFC-5773-44F3-9E64-12D50381643C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="540" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="reviewed_login" sheetId="1" r:id="rId1"/>
+    <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -139,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -153,6 +153,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -168,6 +169,681 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>91440</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Check Box 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>144780</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>91440</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Check Box 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="396240" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Check Box 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A268D3AC-A28D-4ADE-B3F8-D62781294AA5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="396240" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Check Box 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C1194A6-B137-4044-9943-07847C4FC2D9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="396240" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Check Box 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C78FB936-0C1C-4A6F-B5F0-3AF689D90E07}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="396240" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Check Box 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A42427-1CD8-4721-BAFA-CE48F0A4D056}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="396240" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1034" name="Check Box 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1034"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{582C6916-9714-4367-964A-8FDD5018D963}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="396240" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Check Box 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D9580B0-2537-47D7-8C0B-2193E185785B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="396240" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1036" name="Check Box 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1036"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{820DB66E-5CFC-4E72-81B6-B8D1497B4105}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="396240" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1037" name="Check Box 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1037"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBCD0573-A9A0-4812-8B76-3133CF14DE56}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,16 +1108,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -484,38 +1162,246 @@
       <c r="B4" s="3">
         <v>45246</v>
       </c>
-      <c r="C4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1027" r:id="rId3" name="Check Box 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>91440</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1029" r:id="rId4" name="Check Box 5">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>144780</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>91440</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1030" r:id="rId5" name="Check Box 6">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1031" r:id="rId6" name="Check Box 7">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1032" r:id="rId7" name="Check Box 8">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1033" r:id="rId8" name="Check Box 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1034" r:id="rId9" name="Check Box 10">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1035" r:id="rId10" name="Check Box 11">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1036" r:id="rId11" name="Check Box 12">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1037" r:id="rId12" name="Check Box 13">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>